--- a/Documents/Shadowed-Paths.xlsx
+++ b/Documents/Shadowed-Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developpement\Games\Unity 6\Shadowed-Paths\Shadowed-Paths\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC081478-4E72-4AD3-A4D2-44CDADBC67D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02547A09-8D9C-4AFF-94AB-91B8A3C958DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26085" yWindow="1275" windowWidth="24930" windowHeight="19545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="645" yWindow="1290" windowWidth="24930" windowHeight="19545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96B7AAB-E259-4F06-A70D-7C7EC342C65D}">
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0433B0C3-CB72-4FC8-813B-FD67DC0144EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
